--- a/data/pca/factorExposure/factorExposure_2015-11-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0164039705523888</v>
+        <v>0.01435119432891559</v>
       </c>
       <c r="C2">
-        <v>0.03210206181399314</v>
+        <v>-0.0324496917421663</v>
       </c>
       <c r="D2">
-        <v>-0.09257770601465752</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1247440847961956</v>
+      </c>
+      <c r="E2">
+        <v>0.06671947697048738</v>
+      </c>
+      <c r="F2">
+        <v>0.02453888688957838</v>
+      </c>
+      <c r="G2">
+        <v>-0.07292698570227345</v>
+      </c>
+      <c r="H2">
+        <v>0.0912210774719161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02128015173011225</v>
+        <v>0.01336148981963465</v>
       </c>
       <c r="C3">
-        <v>0.04638125023290126</v>
+        <v>-0.03677196111589948</v>
       </c>
       <c r="D3">
-        <v>-0.1188595964376652</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07258428733971402</v>
+      </c>
+      <c r="E3">
+        <v>0.04023170039582914</v>
+      </c>
+      <c r="F3">
+        <v>0.0448691833875571</v>
+      </c>
+      <c r="G3">
+        <v>-0.09602471915470839</v>
+      </c>
+      <c r="H3">
+        <v>0.006140291082722041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05727231154158925</v>
+        <v>0.05421871507809398</v>
       </c>
       <c r="C4">
-        <v>0.03990311726476787</v>
+        <v>-0.06299507045378802</v>
       </c>
       <c r="D4">
-        <v>-0.1287137645462985</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1470808492602121</v>
+      </c>
+      <c r="E4">
+        <v>0.04930240670922777</v>
+      </c>
+      <c r="F4">
+        <v>0.02029251111543882</v>
+      </c>
+      <c r="G4">
+        <v>0.03812652918211624</v>
+      </c>
+      <c r="H4">
+        <v>-0.0217840326468927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04178044454363838</v>
+        <v>0.03975030059215431</v>
       </c>
       <c r="C6">
-        <v>0.01233576265226177</v>
+        <v>-0.02754233734788176</v>
       </c>
       <c r="D6">
-        <v>-0.1363316572595974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1352038503747396</v>
+      </c>
+      <c r="E6">
+        <v>0.02562074753326185</v>
+      </c>
+      <c r="F6">
+        <v>0.0158757067554947</v>
+      </c>
+      <c r="G6">
+        <v>-0.008420184915440278</v>
+      </c>
+      <c r="H6">
+        <v>0.01607187182921052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02128293514641548</v>
+        <v>0.01414078564724904</v>
       </c>
       <c r="C7">
-        <v>0.01685305103257156</v>
+        <v>-0.03132859830135817</v>
       </c>
       <c r="D7">
-        <v>-0.09943470294774284</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09536511155193801</v>
+      </c>
+      <c r="E7">
+        <v>0.02758931727517374</v>
+      </c>
+      <c r="F7">
+        <v>0.02274410670025521</v>
+      </c>
+      <c r="G7">
+        <v>-0.0007085062111323619</v>
+      </c>
+      <c r="H7">
+        <v>0.1134620265510243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01072839594146675</v>
+        <v>0.007068107769740457</v>
       </c>
       <c r="C8">
-        <v>0.02896194652352251</v>
+        <v>-0.03730211987066325</v>
       </c>
       <c r="D8">
-        <v>-0.05721121748931279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07402003799266232</v>
+      </c>
+      <c r="E8">
+        <v>0.03231882052321843</v>
+      </c>
+      <c r="F8">
+        <v>0.04380746212911645</v>
+      </c>
+      <c r="G8">
+        <v>-0.01695348726061554</v>
+      </c>
+      <c r="H8">
+        <v>0.04153496883365196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04554972068450391</v>
+        <v>0.04246871092374377</v>
       </c>
       <c r="C9">
-        <v>0.04233473792108119</v>
+        <v>-0.05974943124126761</v>
       </c>
       <c r="D9">
-        <v>-0.1133072697327289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1230516232199477</v>
+      </c>
+      <c r="E9">
+        <v>0.03500186759507563</v>
+      </c>
+      <c r="F9">
+        <v>0.00273430986334823</v>
+      </c>
+      <c r="G9">
+        <v>0.02718863147922321</v>
+      </c>
+      <c r="H9">
+        <v>0.008096596251931758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09566995230147925</v>
+        <v>0.1414676141857001</v>
       </c>
       <c r="C10">
-        <v>-0.1882141663922627</v>
+        <v>0.1869806185062582</v>
       </c>
       <c r="D10">
-        <v>0.005665825627817953</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001776663851920132</v>
+      </c>
+      <c r="E10">
+        <v>0.0435843516947708</v>
+      </c>
+      <c r="F10">
+        <v>0.02493554143144001</v>
+      </c>
+      <c r="G10">
+        <v>0.0325600736360885</v>
+      </c>
+      <c r="H10">
+        <v>-0.002263059728889977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0337491207398332</v>
+        <v>0.02810087444074131</v>
       </c>
       <c r="C11">
-        <v>0.03686955398138151</v>
+        <v>-0.04470464381295042</v>
       </c>
       <c r="D11">
-        <v>-0.05777989620599823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05846908731126634</v>
+      </c>
+      <c r="E11">
+        <v>-0.005893589338145367</v>
+      </c>
+      <c r="F11">
+        <v>0.0009028255547362995</v>
+      </c>
+      <c r="G11">
+        <v>-0.002618661170816254</v>
+      </c>
+      <c r="H11">
+        <v>0.04799834029904809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04031360168075701</v>
+        <v>0.03363778574179307</v>
       </c>
       <c r="C12">
-        <v>0.03823652343659691</v>
+        <v>-0.04588769255360857</v>
       </c>
       <c r="D12">
-        <v>-0.06152433126466784</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05864928476213192</v>
+      </c>
+      <c r="E12">
+        <v>0.000180775969910998</v>
+      </c>
+      <c r="F12">
+        <v>-0.007668446537103912</v>
+      </c>
+      <c r="G12">
+        <v>-0.002387298945306016</v>
+      </c>
+      <c r="H12">
+        <v>0.06163423095119994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01820440135536843</v>
+        <v>0.01756144386220979</v>
       </c>
       <c r="C13">
-        <v>0.02902387222418348</v>
+        <v>-0.03847882735670704</v>
       </c>
       <c r="D13">
-        <v>-0.1265719694956437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1466635453057615</v>
+      </c>
+      <c r="E13">
+        <v>0.04596564565625242</v>
+      </c>
+      <c r="F13">
+        <v>0.03900042510266368</v>
+      </c>
+      <c r="G13">
+        <v>-0.01060160099812213</v>
+      </c>
+      <c r="H13">
+        <v>0.09994533751572522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00911219649382532</v>
+        <v>0.008543957885235223</v>
       </c>
       <c r="C14">
-        <v>0.01392539474023281</v>
+        <v>-0.0239891836432642</v>
       </c>
       <c r="D14">
-        <v>-0.08073998542956533</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08914213030936949</v>
+      </c>
+      <c r="E14">
+        <v>0.03306849635944271</v>
+      </c>
+      <c r="F14">
+        <v>-0.002427691454301408</v>
+      </c>
+      <c r="G14">
+        <v>-0.01360981543877479</v>
+      </c>
+      <c r="H14">
+        <v>0.1033180397236181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002138052068375648</v>
+        <v>0.001615427591199042</v>
       </c>
       <c r="C15">
-        <v>0.002147286714519521</v>
+        <v>-0.01026649684028398</v>
       </c>
       <c r="D15">
-        <v>-0.002928112383508178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03337563402639872</v>
+      </c>
+      <c r="E15">
+        <v>0.00554409467479781</v>
+      </c>
+      <c r="F15">
+        <v>-0.001932322467562922</v>
+      </c>
+      <c r="G15">
+        <v>-0.009875022285500017</v>
+      </c>
+      <c r="H15">
+        <v>0.009703178173517462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03391419138738332</v>
+        <v>0.02900169694391894</v>
       </c>
       <c r="C16">
-        <v>0.03949540519890009</v>
+        <v>-0.04473867497137386</v>
       </c>
       <c r="D16">
-        <v>-0.06825389636827393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06465276134893698</v>
+      </c>
+      <c r="E16">
+        <v>0.005910802880848593</v>
+      </c>
+      <c r="F16">
+        <v>-0.008058649016582134</v>
+      </c>
+      <c r="G16">
+        <v>-0.002226223471012064</v>
+      </c>
+      <c r="H16">
+        <v>0.05953887811916675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01067550473624669</v>
+        <v>0.007331794950652673</v>
       </c>
       <c r="C19">
-        <v>0.02260236038376918</v>
+        <v>-0.02034995680713254</v>
       </c>
       <c r="D19">
-        <v>-0.1631776308098002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1231405388456032</v>
+      </c>
+      <c r="E19">
+        <v>0.06178740598183372</v>
+      </c>
+      <c r="F19">
+        <v>-0.003141084516359835</v>
+      </c>
+      <c r="G19">
+        <v>-0.02371077620306864</v>
+      </c>
+      <c r="H19">
+        <v>0.06504320563343573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0169173748895878</v>
+        <v>0.01568647853197386</v>
       </c>
       <c r="C20">
-        <v>0.02584308840387888</v>
+        <v>-0.03300084934142122</v>
       </c>
       <c r="D20">
-        <v>-0.08707497925548412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1000488393170726</v>
+      </c>
+      <c r="E20">
+        <v>0.04813455133562172</v>
+      </c>
+      <c r="F20">
+        <v>-0.002913101437342842</v>
+      </c>
+      <c r="G20">
+        <v>-0.002025142492184705</v>
+      </c>
+      <c r="H20">
+        <v>0.05912038733113865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01272368145239275</v>
+        <v>0.0136327163355103</v>
       </c>
       <c r="C21">
-        <v>0.03204842022508325</v>
+        <v>-0.03718609439762556</v>
       </c>
       <c r="D21">
-        <v>-0.1282704659212656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1412993882119796</v>
+      </c>
+      <c r="E21">
+        <v>0.0838404568798249</v>
+      </c>
+      <c r="F21">
+        <v>0.004938805311048055</v>
+      </c>
+      <c r="G21">
+        <v>0.02213804307366343</v>
+      </c>
+      <c r="H21">
+        <v>0.1232207782682155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007809515567084664</v>
+        <v>0.005607082975110269</v>
       </c>
       <c r="C22">
-        <v>0.0270185245273089</v>
+        <v>-0.04159566339328784</v>
       </c>
       <c r="D22">
-        <v>-0.09190561552734389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1467186235663858</v>
+      </c>
+      <c r="E22">
+        <v>0.02669517763304515</v>
+      </c>
+      <c r="F22">
+        <v>0.08868459148254591</v>
+      </c>
+      <c r="G22">
+        <v>-0.07208819177655693</v>
+      </c>
+      <c r="H22">
+        <v>-0.06604029876583389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007932398352025003</v>
+        <v>0.00570923141811725</v>
       </c>
       <c r="C23">
-        <v>0.02695261018101153</v>
+        <v>-0.04206678024542389</v>
       </c>
       <c r="D23">
-        <v>-0.09121410473982937</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1461593690585265</v>
+      </c>
+      <c r="E23">
+        <v>0.02700662661671373</v>
+      </c>
+      <c r="F23">
+        <v>0.08867237560261894</v>
+      </c>
+      <c r="G23">
+        <v>-0.07115651724611809</v>
+      </c>
+      <c r="H23">
+        <v>-0.06617205224550587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03703401427799038</v>
+        <v>0.03039351972701331</v>
       </c>
       <c r="C24">
-        <v>0.04839142050952597</v>
+        <v>-0.05627157861969989</v>
       </c>
       <c r="D24">
-        <v>-0.06672855397219596</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06638545149388188</v>
+      </c>
+      <c r="E24">
+        <v>0.01076478256733092</v>
+      </c>
+      <c r="F24">
+        <v>-0.004921988213915741</v>
+      </c>
+      <c r="G24">
+        <v>0.004735642555882444</v>
+      </c>
+      <c r="H24">
+        <v>0.07104245104586382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04060209787505305</v>
+        <v>0.03473223371334411</v>
       </c>
       <c r="C25">
-        <v>0.04736140130435382</v>
+        <v>-0.05373654356242318</v>
       </c>
       <c r="D25">
-        <v>-0.06675646632881381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0633459535702191</v>
+      </c>
+      <c r="E25">
+        <v>0.01187645047940863</v>
+      </c>
+      <c r="F25">
+        <v>0.0002352413965207995</v>
+      </c>
+      <c r="G25">
+        <v>0.004944540356771373</v>
+      </c>
+      <c r="H25">
+        <v>0.0572847308615851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02032178787337069</v>
+        <v>0.01901123803697032</v>
       </c>
       <c r="C26">
-        <v>0.00703389745232679</v>
+        <v>-0.01747143390884067</v>
       </c>
       <c r="D26">
-        <v>-0.05228663257627118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06363617187058232</v>
+      </c>
+      <c r="E26">
+        <v>0.02497042848517287</v>
+      </c>
+      <c r="F26">
+        <v>0.004706990399600141</v>
+      </c>
+      <c r="G26">
+        <v>-0.008801489994139376</v>
+      </c>
+      <c r="H26">
+        <v>0.06360237985711523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1452346125590442</v>
+        <v>0.2014424352481523</v>
       </c>
       <c r="C28">
-        <v>-0.2710571806424378</v>
+        <v>0.2507214006041018</v>
       </c>
       <c r="D28">
-        <v>0.03576529284912762</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01365142258276717</v>
+      </c>
+      <c r="E28">
+        <v>0.07136921303795363</v>
+      </c>
+      <c r="F28">
+        <v>0.005684676653269265</v>
+      </c>
+      <c r="G28">
+        <v>0.06246239052261223</v>
+      </c>
+      <c r="H28">
+        <v>0.01493418490892885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005840609616738084</v>
+        <v>0.006322797107755733</v>
       </c>
       <c r="C29">
-        <v>0.01632990546018355</v>
+        <v>-0.02291250369974013</v>
       </c>
       <c r="D29">
-        <v>-0.06515432123583907</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.08361245997621031</v>
+      </c>
+      <c r="E29">
+        <v>0.02821226070303611</v>
+      </c>
+      <c r="F29">
+        <v>0.01175956855696802</v>
+      </c>
+      <c r="G29">
+        <v>0.005119793257676109</v>
+      </c>
+      <c r="H29">
+        <v>0.1085869457582346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03782632920244914</v>
+        <v>0.04108182307287968</v>
       </c>
       <c r="C30">
-        <v>0.03472881043944826</v>
+        <v>-0.06057798308729174</v>
       </c>
       <c r="D30">
-        <v>-0.1687211331346173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1787375778454207</v>
+      </c>
+      <c r="E30">
+        <v>0.01411968210323732</v>
+      </c>
+      <c r="F30">
+        <v>0.01029139999478607</v>
+      </c>
+      <c r="G30">
+        <v>-0.0237481878935959</v>
+      </c>
+      <c r="H30">
+        <v>0.0008474106399308439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06914454317529026</v>
+        <v>0.05506387360477426</v>
       </c>
       <c r="C31">
-        <v>0.04696219165891059</v>
+        <v>-0.07268886485912895</v>
       </c>
       <c r="D31">
-        <v>-0.06936874756465421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05594217731437381</v>
+      </c>
+      <c r="E31">
+        <v>0.03055101751741068</v>
+      </c>
+      <c r="F31">
+        <v>0.03163670551894972</v>
+      </c>
+      <c r="G31">
+        <v>0.01793400227096571</v>
+      </c>
+      <c r="H31">
+        <v>0.04621816938968181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005432466531587039</v>
+        <v>0.0103613095524111</v>
       </c>
       <c r="C32">
-        <v>0.01732562945299753</v>
+        <v>-0.01911345021626122</v>
       </c>
       <c r="D32">
-        <v>-0.06586442335421182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1069274200555966</v>
+      </c>
+      <c r="E32">
+        <v>0.08748535419732395</v>
+      </c>
+      <c r="F32">
+        <v>0.01218033601072444</v>
+      </c>
+      <c r="G32">
+        <v>0.02264469208885622</v>
+      </c>
+      <c r="H32">
+        <v>0.1007542284471854</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02435955426520931</v>
+        <v>0.02284102261786722</v>
       </c>
       <c r="C33">
-        <v>0.02930746275746696</v>
+        <v>-0.04308748772777848</v>
       </c>
       <c r="D33">
-        <v>-0.1331901194693641</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1329232114986264</v>
+      </c>
+      <c r="E33">
+        <v>0.03878095279833149</v>
+      </c>
+      <c r="F33">
+        <v>0.01727936169799314</v>
+      </c>
+      <c r="G33">
+        <v>-0.004473868998042178</v>
+      </c>
+      <c r="H33">
+        <v>0.06755410463975169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03506617960475878</v>
+        <v>0.02672012510225032</v>
       </c>
       <c r="C34">
-        <v>0.06061328000474211</v>
+        <v>-0.06137723129173163</v>
       </c>
       <c r="D34">
-        <v>-0.06812169358004055</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05536172552598958</v>
+      </c>
+      <c r="E34">
+        <v>-0.005145313557404507</v>
+      </c>
+      <c r="F34">
+        <v>-0.009720317737856105</v>
+      </c>
+      <c r="G34">
+        <v>-0.003902829973880398</v>
+      </c>
+      <c r="H34">
+        <v>0.07738353433735085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0009187081225041029</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0005512048964817508</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.005086440664584052</v>
+      </c>
+      <c r="E35">
+        <v>0.0006645953304460459</v>
+      </c>
+      <c r="F35">
+        <v>2.117798410159422e-05</v>
+      </c>
+      <c r="G35">
+        <v>-0.001753653574723129</v>
+      </c>
+      <c r="H35">
+        <v>0.002616283258435731</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02159764483051489</v>
+        <v>0.01956545305786927</v>
       </c>
       <c r="C36">
-        <v>0.001758839080950314</v>
+        <v>-0.01419542077202399</v>
       </c>
       <c r="D36">
-        <v>-0.07120423089758099</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07689114394495346</v>
+      </c>
+      <c r="E36">
+        <v>0.03089098116920231</v>
+      </c>
+      <c r="F36">
+        <v>0.003150227139498572</v>
+      </c>
+      <c r="G36">
+        <v>0.00683440979455625</v>
+      </c>
+      <c r="H36">
+        <v>0.05642639914222351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02074615531239398</v>
+        <v>0.02005035412510747</v>
       </c>
       <c r="C38">
-        <v>0.01517126560666865</v>
+        <v>-0.02068060564075348</v>
       </c>
       <c r="D38">
-        <v>-0.05625830185579152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06092649094039731</v>
+      </c>
+      <c r="E38">
+        <v>0.03530521288106784</v>
+      </c>
+      <c r="F38">
+        <v>-0.007862383881884795</v>
+      </c>
+      <c r="G38">
+        <v>-0.03828329222511443</v>
+      </c>
+      <c r="H38">
+        <v>0.03900181927900302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03961009434327408</v>
+        <v>0.03537545318324241</v>
       </c>
       <c r="C39">
-        <v>0.04777216553514899</v>
+        <v>-0.06505894926067939</v>
       </c>
       <c r="D39">
-        <v>-0.09057272255001868</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1045873605551793</v>
+      </c>
+      <c r="E39">
+        <v>0.004605350982681258</v>
+      </c>
+      <c r="F39">
+        <v>-0.02658591727960416</v>
+      </c>
+      <c r="G39">
+        <v>-0.005942324307626724</v>
+      </c>
+      <c r="H39">
+        <v>0.08719148477220257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01961224777494084</v>
+        <v>0.01370346276151261</v>
       </c>
       <c r="C40">
-        <v>0.04522310567820975</v>
+        <v>-0.03878405637624736</v>
       </c>
       <c r="D40">
-        <v>-0.08013565106413964</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08431787919960074</v>
+      </c>
+      <c r="E40">
+        <v>0.05926108314429291</v>
+      </c>
+      <c r="F40">
+        <v>0.07058415237811401</v>
+      </c>
+      <c r="G40">
+        <v>-0.06771402966564134</v>
+      </c>
+      <c r="H40">
+        <v>0.1576809402615644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02524040808794837</v>
+        <v>0.02400193258594301</v>
       </c>
       <c r="C41">
-        <v>-0.002719858490386088</v>
+        <v>-0.008081090397774191</v>
       </c>
       <c r="D41">
-        <v>-0.06580026694642728</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05513852201561576</v>
+      </c>
+      <c r="E41">
+        <v>0.05042710204203622</v>
+      </c>
+      <c r="F41">
+        <v>0.00284468344436145</v>
+      </c>
+      <c r="G41">
+        <v>-0.01416202499298391</v>
+      </c>
+      <c r="H41">
+        <v>0.04746657817184368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02980522121359394</v>
+        <v>0.0236486033609821</v>
       </c>
       <c r="C43">
-        <v>0.007652380724093522</v>
+        <v>-0.01797639604396373</v>
       </c>
       <c r="D43">
-        <v>-0.1011821188283393</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08275102286864133</v>
+      </c>
+      <c r="E43">
+        <v>0.0295972887849132</v>
+      </c>
+      <c r="F43">
+        <v>0.005978850726093014</v>
+      </c>
+      <c r="G43">
+        <v>-0.0149997814700187</v>
+      </c>
+      <c r="H43">
+        <v>0.07027301534283217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0161515759596589</v>
+        <v>0.01661263496786229</v>
       </c>
       <c r="C44">
-        <v>0.04497023413469734</v>
+        <v>-0.04405824095743431</v>
       </c>
       <c r="D44">
-        <v>-0.08156919839436871</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09968800830155405</v>
+      </c>
+      <c r="E44">
+        <v>0.06451886679165779</v>
+      </c>
+      <c r="F44">
+        <v>0.01052077416698967</v>
+      </c>
+      <c r="G44">
+        <v>-0.007508369517093248</v>
+      </c>
+      <c r="H44">
+        <v>0.07309928063784292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02003390318643677</v>
+        <v>0.01546953901512549</v>
       </c>
       <c r="C46">
-        <v>0.01481622695326069</v>
+        <v>-0.02866525254342689</v>
       </c>
       <c r="D46">
-        <v>-0.07437690194389528</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08764237709282831</v>
+      </c>
+      <c r="E46">
+        <v>0.03409375609859848</v>
+      </c>
+      <c r="F46">
+        <v>-0.01352068853020645</v>
+      </c>
+      <c r="G46">
+        <v>0.01201055214003335</v>
+      </c>
+      <c r="H46">
+        <v>0.1123739708825413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09792167404417067</v>
+        <v>0.08187593562898011</v>
       </c>
       <c r="C47">
-        <v>0.06562787214525705</v>
+        <v>-0.08929696974044793</v>
       </c>
       <c r="D47">
-        <v>-0.04601528178675025</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03373142678352469</v>
+      </c>
+      <c r="E47">
+        <v>0.03567574724533822</v>
+      </c>
+      <c r="F47">
+        <v>0.02120686031653618</v>
+      </c>
+      <c r="G47">
+        <v>0.04041690158370673</v>
+      </c>
+      <c r="H47">
+        <v>0.02560692039620853</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01633390946555652</v>
+        <v>0.0166210969027807</v>
       </c>
       <c r="C48">
-        <v>0.01277599449621487</v>
+        <v>-0.01942744793152607</v>
       </c>
       <c r="D48">
-        <v>-0.06466475816591259</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07383098715235932</v>
+      </c>
+      <c r="E48">
+        <v>0.0485437390017229</v>
+      </c>
+      <c r="F48">
+        <v>-0.001204175564000878</v>
+      </c>
+      <c r="G48">
+        <v>0.004668298507730832</v>
+      </c>
+      <c r="H48">
+        <v>0.06310287507314266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06376911173060561</v>
+        <v>0.0533312426766445</v>
       </c>
       <c r="C50">
-        <v>0.05065804022104702</v>
+        <v>-0.06710797535959964</v>
       </c>
       <c r="D50">
-        <v>-0.06386186822688419</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0559264138049447</v>
+      </c>
+      <c r="E50">
+        <v>0.03909025787427219</v>
+      </c>
+      <c r="F50">
+        <v>0.03861580189145453</v>
+      </c>
+      <c r="G50">
+        <v>-0.01407178649827352</v>
+      </c>
+      <c r="H50">
+        <v>0.04707477149586173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0101593253260855</v>
+        <v>0.01061591755278917</v>
       </c>
       <c r="C51">
-        <v>0.01709926322507396</v>
+        <v>-0.01946980131851462</v>
       </c>
       <c r="D51">
-        <v>-0.0804978516368072</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08984586544730376</v>
+      </c>
+      <c r="E51">
+        <v>0.01029492209878249</v>
+      </c>
+      <c r="F51">
+        <v>0.00378632785418792</v>
+      </c>
+      <c r="G51">
+        <v>-0.01915660008579393</v>
+      </c>
+      <c r="H51">
+        <v>0.06581789921214184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09010616782002683</v>
+        <v>0.08533291948867759</v>
       </c>
       <c r="C53">
-        <v>0.08724508014755096</v>
+        <v>-0.102669663978294</v>
       </c>
       <c r="D53">
-        <v>-0.008810298834193689</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01233614489640344</v>
+      </c>
+      <c r="E53">
+        <v>0.1069641746149297</v>
+      </c>
+      <c r="F53">
+        <v>0.04266437681179835</v>
+      </c>
+      <c r="G53">
+        <v>0.08680072758551362</v>
+      </c>
+      <c r="H53">
+        <v>0.01348320017231856</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03084428046086976</v>
+        <v>0.02578069080459901</v>
       </c>
       <c r="C54">
-        <v>0.02686979905023474</v>
+        <v>-0.03649986633332682</v>
       </c>
       <c r="D54">
-        <v>-0.09251364985248527</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08784168253980514</v>
+      </c>
+      <c r="E54">
+        <v>0.03929722995236631</v>
+      </c>
+      <c r="F54">
+        <v>-0.01087848221898142</v>
+      </c>
+      <c r="G54">
+        <v>-0.02322290092259283</v>
+      </c>
+      <c r="H54">
+        <v>0.1148990420079939</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0941539519601261</v>
+        <v>0.083948539370167</v>
       </c>
       <c r="C55">
-        <v>0.05842489296016748</v>
+        <v>-0.08160607365582137</v>
       </c>
       <c r="D55">
-        <v>0.01190782956070633</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006508095059258645</v>
+      </c>
+      <c r="E55">
+        <v>0.05925080300013369</v>
+      </c>
+      <c r="F55">
+        <v>0.03946221673298828</v>
+      </c>
+      <c r="G55">
+        <v>0.04444153824828392</v>
+      </c>
+      <c r="H55">
+        <v>-0.000693430221754713</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1410077663294284</v>
+        <v>0.1283202154110754</v>
       </c>
       <c r="C56">
-        <v>0.09344062263831877</v>
+        <v>-0.1260205384475742</v>
       </c>
       <c r="D56">
-        <v>0.0008611032148511345</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.007517763523628348</v>
+      </c>
+      <c r="E56">
+        <v>0.06495833955685383</v>
+      </c>
+      <c r="F56">
+        <v>0.03059994524040267</v>
+      </c>
+      <c r="G56">
+        <v>0.04583537193771769</v>
+      </c>
+      <c r="H56">
+        <v>0.002403643188576552</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01401520650449868</v>
+        <v>0.02523982937722715</v>
       </c>
       <c r="C58">
-        <v>-0.01727128868365638</v>
+        <v>-0.01799359850352541</v>
       </c>
       <c r="D58">
-        <v>-0.3402709530498869</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3792690933151679</v>
+      </c>
+      <c r="E58">
+        <v>0.1937919649072191</v>
+      </c>
+      <c r="F58">
+        <v>0.1329056893140443</v>
+      </c>
+      <c r="G58">
+        <v>-0.2487932374321432</v>
+      </c>
+      <c r="H58">
+        <v>-0.4355558803030526</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1381472139839582</v>
+        <v>0.1794342512468768</v>
       </c>
       <c r="C59">
-        <v>-0.1955986318944442</v>
+        <v>0.1681796731109593</v>
       </c>
       <c r="D59">
-        <v>-0.0286874124967482</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05095813733043354</v>
+      </c>
+      <c r="E59">
+        <v>0.01444631820763401</v>
+      </c>
+      <c r="F59">
+        <v>-0.04123217500953776</v>
+      </c>
+      <c r="G59">
+        <v>0.0001281379815877687</v>
+      </c>
+      <c r="H59">
+        <v>-0.02432341144614942</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2455536128670819</v>
+        <v>0.2270271543633172</v>
       </c>
       <c r="C60">
-        <v>0.05562859009720218</v>
+        <v>-0.1050371263874429</v>
       </c>
       <c r="D60">
-        <v>-0.1824391248662926</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1052594992022031</v>
+      </c>
+      <c r="E60">
+        <v>-0.3637586624150704</v>
+      </c>
+      <c r="F60">
+        <v>0.0343804228307536</v>
+      </c>
+      <c r="G60">
+        <v>0.03519444555532075</v>
+      </c>
+      <c r="H60">
+        <v>-0.1133072919472019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04615494174699993</v>
+        <v>0.03989092479976881</v>
       </c>
       <c r="C61">
-        <v>0.05014416045924719</v>
+        <v>-0.06205921777003245</v>
       </c>
       <c r="D61">
-        <v>-0.09959108037455461</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09239980267249272</v>
+      </c>
+      <c r="E61">
+        <v>0.0009144516990511206</v>
+      </c>
+      <c r="F61">
+        <v>-0.01734274015491152</v>
+      </c>
+      <c r="G61">
+        <v>0.006194483917756631</v>
+      </c>
+      <c r="H61">
+        <v>0.0808510630325954</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01740715838671102</v>
+        <v>0.0142872009602066</v>
       </c>
       <c r="C63">
-        <v>0.02287474691617545</v>
+        <v>-0.03335335778724079</v>
       </c>
       <c r="D63">
-        <v>-0.06083324807667648</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06780786914663112</v>
+      </c>
+      <c r="E63">
+        <v>0.02815234874218261</v>
+      </c>
+      <c r="F63">
+        <v>0.01771958910899172</v>
+      </c>
+      <c r="G63">
+        <v>-0.004403088731391678</v>
+      </c>
+      <c r="H63">
+        <v>0.05002241254829377</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.06076146227768044</v>
+        <v>0.05322886438665662</v>
       </c>
       <c r="C64">
-        <v>0.06578434090138718</v>
+        <v>-0.0821445199997437</v>
       </c>
       <c r="D64">
-        <v>-0.06161905689765101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05570780376869702</v>
+      </c>
+      <c r="E64">
+        <v>0.0235972212582774</v>
+      </c>
+      <c r="F64">
+        <v>-0.01413161532279545</v>
+      </c>
+      <c r="G64">
+        <v>0.05291244241878441</v>
+      </c>
+      <c r="H64">
+        <v>0.06186541683182344</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04865661593729575</v>
+        <v>0.04676992555929459</v>
       </c>
       <c r="C65">
-        <v>0.003803368902457218</v>
+        <v>-0.0246926947025997</v>
       </c>
       <c r="D65">
-        <v>-0.112831487228477</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1147184172709816</v>
+      </c>
+      <c r="E65">
+        <v>0.0006069212306526762</v>
+      </c>
+      <c r="F65">
+        <v>0.01840867720794106</v>
+      </c>
+      <c r="G65">
+        <v>-0.02946964131725082</v>
+      </c>
+      <c r="H65">
+        <v>-0.02467106779852551</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04501541633806606</v>
+        <v>0.03988619126122562</v>
       </c>
       <c r="C66">
-        <v>0.05583547703028104</v>
+        <v>-0.07535901791462561</v>
       </c>
       <c r="D66">
-        <v>-0.1127422975040723</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1310502909637076</v>
+      </c>
+      <c r="E66">
+        <v>0.009253387543559477</v>
+      </c>
+      <c r="F66">
+        <v>-0.01217059580528731</v>
+      </c>
+      <c r="G66">
+        <v>-0.01498178738661558</v>
+      </c>
+      <c r="H66">
+        <v>0.05497136103256458</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04102074840706332</v>
+        <v>0.03722641132765113</v>
       </c>
       <c r="C67">
-        <v>0.01793809021125354</v>
+        <v>-0.0267938863562988</v>
       </c>
       <c r="D67">
-        <v>-0.02582117813827975</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02149437755005263</v>
+      </c>
+      <c r="E67">
+        <v>0.01475386107710337</v>
+      </c>
+      <c r="F67">
+        <v>-0.007182273003895942</v>
+      </c>
+      <c r="G67">
+        <v>-0.03525921469368343</v>
+      </c>
+      <c r="H67">
+        <v>0.03817094156106351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.157220964640733</v>
+        <v>0.1968079128759748</v>
       </c>
       <c r="C68">
-        <v>-0.2403120562028465</v>
+        <v>0.19863382967798</v>
       </c>
       <c r="D68">
-        <v>0.02181979609191728</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01069723277968292</v>
+      </c>
+      <c r="E68">
+        <v>0.05448605780101658</v>
+      </c>
+      <c r="F68">
+        <v>0.03044918898180575</v>
+      </c>
+      <c r="G68">
+        <v>-0.01252168061003668</v>
+      </c>
+      <c r="H68">
+        <v>-0.006229638998753186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08915992659910606</v>
+        <v>0.07447028045861569</v>
       </c>
       <c r="C69">
-        <v>0.08331732622729769</v>
+        <v>-0.09712417087535721</v>
       </c>
       <c r="D69">
-        <v>-0.06484760584965819</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04611075047699668</v>
+      </c>
+      <c r="E69">
+        <v>0.02500828023187357</v>
+      </c>
+      <c r="F69">
+        <v>0.006930384259130313</v>
+      </c>
+      <c r="G69">
+        <v>0.02914220003281127</v>
+      </c>
+      <c r="H69">
+        <v>0.03869485030471595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1373323441740475</v>
+        <v>0.1841230360694489</v>
       </c>
       <c r="C71">
-        <v>-0.2417667360243424</v>
+        <v>0.2101104161591369</v>
       </c>
       <c r="D71">
-        <v>-0.01462277943705134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03597793338878796</v>
+      </c>
+      <c r="E71">
+        <v>0.05348947265907311</v>
+      </c>
+      <c r="F71">
+        <v>0.03360863113811204</v>
+      </c>
+      <c r="G71">
+        <v>0.01461920146629782</v>
+      </c>
+      <c r="H71">
+        <v>0.02554131364522894</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09708395169421168</v>
+        <v>0.09828203827121011</v>
       </c>
       <c r="C72">
-        <v>0.03916834884810811</v>
+        <v>-0.06978491824380045</v>
       </c>
       <c r="D72">
-        <v>-0.08804821335435145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09273991309591244</v>
+      </c>
+      <c r="E72">
+        <v>-0.0404671614068351</v>
+      </c>
+      <c r="F72">
+        <v>0.03846493199471068</v>
+      </c>
+      <c r="G72">
+        <v>0.03110293378914521</v>
+      </c>
+      <c r="H72">
+        <v>0.03466020228382746</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2643744446509003</v>
+        <v>0.2392468525427363</v>
       </c>
       <c r="C73">
-        <v>0.006233079136330468</v>
+        <v>-0.0881987442176462</v>
       </c>
       <c r="D73">
-        <v>-0.2927029158272435</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1586635375046583</v>
+      </c>
+      <c r="E73">
+        <v>-0.6725785854648859</v>
+      </c>
+      <c r="F73">
+        <v>0.02429814327659877</v>
+      </c>
+      <c r="G73">
+        <v>0.02021081934250548</v>
+      </c>
+      <c r="H73">
+        <v>-0.1602270531341853</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.111614523932788</v>
+        <v>0.09871072096466531</v>
       </c>
       <c r="C74">
-        <v>0.06645568992373202</v>
+        <v>-0.09123286489069694</v>
       </c>
       <c r="D74">
-        <v>-0.01160769657642812</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.002538194773160688</v>
+      </c>
+      <c r="E74">
+        <v>0.07610230610614713</v>
+      </c>
+      <c r="F74">
+        <v>0.06198373631587491</v>
+      </c>
+      <c r="G74">
+        <v>0.06069845915765802</v>
+      </c>
+      <c r="H74">
+        <v>-0.02682060234880704</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2509418102542252</v>
+        <v>0.2264844001747375</v>
       </c>
       <c r="C75">
-        <v>0.123899572059489</v>
+        <v>-0.1681541930487748</v>
       </c>
       <c r="D75">
-        <v>0.06748097100297747</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.0961626871301606</v>
+      </c>
+      <c r="E75">
+        <v>0.1115052854543992</v>
+      </c>
+      <c r="F75">
+        <v>-0.004134568763871717</v>
+      </c>
+      <c r="G75">
+        <v>0.05506391775436632</v>
+      </c>
+      <c r="H75">
+        <v>-0.09749612431022382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1434582457845859</v>
+        <v>0.1271600884961823</v>
       </c>
       <c r="C76">
-        <v>0.08674147088123912</v>
+        <v>-0.1148216353189157</v>
       </c>
       <c r="D76">
-        <v>0.002211666236823283</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.008734082531397227</v>
+      </c>
+      <c r="E76">
+        <v>0.1149326693781504</v>
+      </c>
+      <c r="F76">
+        <v>0.01585996406018721</v>
+      </c>
+      <c r="G76">
+        <v>0.04699872940007329</v>
+      </c>
+      <c r="H76">
+        <v>0.01413824857776436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06621434705929881</v>
+        <v>0.06101678923962288</v>
       </c>
       <c r="C77">
-        <v>0.05941668519571655</v>
+        <v>-0.07074092975687944</v>
       </c>
       <c r="D77">
-        <v>-0.05306739495735579</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.138846521813392</v>
+      </c>
+      <c r="E77">
+        <v>0.2172921851405855</v>
+      </c>
+      <c r="F77">
+        <v>-0.2826559707169728</v>
+      </c>
+      <c r="G77">
+        <v>-0.215181993822283</v>
+      </c>
+      <c r="H77">
+        <v>-0.3244781618594343</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04205639149633745</v>
+        <v>0.04309207194388609</v>
       </c>
       <c r="C78">
-        <v>0.05280564756119371</v>
+        <v>-0.06633637770122211</v>
       </c>
       <c r="D78">
-        <v>-0.1222976554432901</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1315866031914943</v>
+      </c>
+      <c r="E78">
+        <v>0.01032152530239797</v>
+      </c>
+      <c r="F78">
+        <v>0.0110093671019386</v>
+      </c>
+      <c r="G78">
+        <v>0.01505759684901404</v>
+      </c>
+      <c r="H78">
+        <v>0.02770743258335529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02479796015783946</v>
+        <v>0.04596315842114468</v>
       </c>
       <c r="C79">
-        <v>0.07815546180119733</v>
+        <v>-0.09006712170520738</v>
       </c>
       <c r="D79">
-        <v>0.04625688390100892</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01881247988899881</v>
+      </c>
+      <c r="E79">
+        <v>0.2033303534927959</v>
+      </c>
+      <c r="F79">
+        <v>0.1330599424698121</v>
+      </c>
+      <c r="G79">
+        <v>0.7289288165474441</v>
+      </c>
+      <c r="H79">
+        <v>-0.3577018615012914</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03278606547983017</v>
+        <v>0.025586167887894</v>
       </c>
       <c r="C80">
-        <v>0.02673349770938204</v>
+        <v>-0.0441600826689313</v>
       </c>
       <c r="D80">
-        <v>-0.02741240433558713</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0328841780416045</v>
+      </c>
+      <c r="E80">
+        <v>0.01634880589215502</v>
+      </c>
+      <c r="F80">
+        <v>-0.01853170619864277</v>
+      </c>
+      <c r="G80">
+        <v>-0.05099007427834165</v>
+      </c>
+      <c r="H80">
+        <v>0.006564162601130645</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1458314182789913</v>
+        <v>0.1272659351187767</v>
       </c>
       <c r="C81">
-        <v>0.09220843674219813</v>
+        <v>-0.1180425096847243</v>
       </c>
       <c r="D81">
-        <v>0.04654644729594042</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.06388447769414746</v>
+      </c>
+      <c r="E81">
+        <v>0.1155257858646808</v>
+      </c>
+      <c r="F81">
+        <v>0.02461037722839033</v>
+      </c>
+      <c r="G81">
+        <v>0.04665218339404729</v>
+      </c>
+      <c r="H81">
+        <v>-0.01081366422449757</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3128898990760128</v>
+        <v>0.2506247264024475</v>
       </c>
       <c r="C82">
-        <v>0.2606598156816579</v>
+        <v>-0.2653937781601768</v>
       </c>
       <c r="D82">
-        <v>0.2273564177610634</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2367520942451213</v>
+      </c>
+      <c r="E82">
+        <v>-0.01039827925467061</v>
+      </c>
+      <c r="F82">
+        <v>0.04858057199591071</v>
+      </c>
+      <c r="G82">
+        <v>0.06271864072900052</v>
+      </c>
+      <c r="H82">
+        <v>0.4498155605683439</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02954952388013632</v>
+        <v>0.02509427461300157</v>
       </c>
       <c r="C83">
-        <v>0.05179625828095941</v>
+        <v>-0.04945512737025789</v>
       </c>
       <c r="D83">
-        <v>-0.04851067958008465</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.052344616709475</v>
+      </c>
+      <c r="E83">
+        <v>0.0170807493838472</v>
+      </c>
+      <c r="F83">
+        <v>-0.02611306025439613</v>
+      </c>
+      <c r="G83">
+        <v>-0.01644267743462249</v>
+      </c>
+      <c r="H83">
+        <v>0.02259872288188171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0009047197112108813</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.003910812436576507</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01809641430780813</v>
+      </c>
+      <c r="E84">
+        <v>0.01596838468948953</v>
+      </c>
+      <c r="F84">
+        <v>0.008228701844103594</v>
+      </c>
+      <c r="G84">
+        <v>-0.007983602750019183</v>
+      </c>
+      <c r="H84">
+        <v>0.001596863765274375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1809981108305447</v>
+        <v>0.1567989312941741</v>
       </c>
       <c r="C85">
-        <v>0.09248513627550732</v>
+        <v>-0.1347114314734914</v>
       </c>
       <c r="D85">
-        <v>0.03306216018686577</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.05952616584916589</v>
+      </c>
+      <c r="E85">
+        <v>0.04993652739548804</v>
+      </c>
+      <c r="F85">
+        <v>0.0320545333015918</v>
+      </c>
+      <c r="G85">
+        <v>0.09823305316095736</v>
+      </c>
+      <c r="H85">
+        <v>-0.07861326069782476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01688467865667813</v>
+        <v>0.0193140281089301</v>
       </c>
       <c r="C86">
-        <v>0.02841941284125983</v>
+        <v>-0.02203726129191289</v>
       </c>
       <c r="D86">
-        <v>-0.1384487649700624</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1279582303995357</v>
+      </c>
+      <c r="E86">
+        <v>0.005204837083200383</v>
+      </c>
+      <c r="F86">
+        <v>-0.01686129659341449</v>
+      </c>
+      <c r="G86">
+        <v>-0.003202501406655823</v>
+      </c>
+      <c r="H86">
+        <v>0.06463137712731028</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03148716700538027</v>
+        <v>0.03587693286574899</v>
       </c>
       <c r="C87">
-        <v>0.003994809700621493</v>
+        <v>-0.02458265464239102</v>
       </c>
       <c r="D87">
-        <v>-0.10148990334498</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1375286294932936</v>
+      </c>
+      <c r="E87">
+        <v>0.07551148865115496</v>
+      </c>
+      <c r="F87">
+        <v>-0.007294771130111622</v>
+      </c>
+      <c r="G87">
+        <v>-0.01949743190567232</v>
+      </c>
+      <c r="H87">
+        <v>0.02986689900578856</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0795687210954554</v>
+        <v>0.07020030815066391</v>
       </c>
       <c r="C88">
-        <v>0.03798789643956349</v>
+        <v>-0.05645464769260231</v>
       </c>
       <c r="D88">
-        <v>-0.03409346835611148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02018791349508041</v>
+      </c>
+      <c r="E88">
+        <v>0.006005480833207457</v>
+      </c>
+      <c r="F88">
+        <v>0.01878301104285252</v>
+      </c>
+      <c r="G88">
+        <v>0.004083980977360109</v>
+      </c>
+      <c r="H88">
+        <v>0.03581058896402892</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2052923205073594</v>
+        <v>0.2824316632301296</v>
       </c>
       <c r="C89">
-        <v>-0.396960440967503</v>
+        <v>0.354482622760798</v>
       </c>
       <c r="D89">
-        <v>0.03236559818822007</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0008946754084479445</v>
+      </c>
+      <c r="E89">
+        <v>0.04211931306688201</v>
+      </c>
+      <c r="F89">
+        <v>-0.04171661123708838</v>
+      </c>
+      <c r="G89">
+        <v>0.04335325444301349</v>
+      </c>
+      <c r="H89">
+        <v>0.08201636408570614</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1882785267969735</v>
+        <v>0.2400877982179664</v>
       </c>
       <c r="C90">
-        <v>-0.2976339327716048</v>
+        <v>0.2522585474464441</v>
       </c>
       <c r="D90">
-        <v>0.02073650852171638</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01472451932483378</v>
+      </c>
+      <c r="E90">
+        <v>0.04577043967113458</v>
+      </c>
+      <c r="F90">
+        <v>0.006751470202651295</v>
+      </c>
+      <c r="G90">
+        <v>-0.04983455550806399</v>
+      </c>
+      <c r="H90">
+        <v>0.04459597422045845</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1893457683945674</v>
+        <v>0.15871718648759</v>
       </c>
       <c r="C91">
-        <v>0.1389618225783653</v>
+        <v>-0.158996597711468</v>
       </c>
       <c r="D91">
-        <v>0.07024660419377216</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08062238658045279</v>
+      </c>
+      <c r="E91">
+        <v>0.1091904990986535</v>
+      </c>
+      <c r="F91">
+        <v>0.02047498366668382</v>
+      </c>
+      <c r="G91">
+        <v>0.09507038543532786</v>
+      </c>
+      <c r="H91">
+        <v>-0.08091525948363817</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1674414809842173</v>
+        <v>0.2253444708481066</v>
       </c>
       <c r="C92">
-        <v>-0.2948227467309213</v>
+        <v>0.2703705098807638</v>
       </c>
       <c r="D92">
-        <v>-0.007332275150530049</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03020798771152642</v>
+      </c>
+      <c r="E92">
+        <v>0.08571077462266291</v>
+      </c>
+      <c r="F92">
+        <v>-0.01088176801826683</v>
+      </c>
+      <c r="G92">
+        <v>-0.01390689039999274</v>
+      </c>
+      <c r="H92">
+        <v>0.03934900263400649</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.218509463000788</v>
+        <v>0.2649585819190216</v>
       </c>
       <c r="C93">
-        <v>-0.3235615528878792</v>
+        <v>0.2655794251436929</v>
       </c>
       <c r="D93">
-        <v>0.002918291011606853</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.002666641091462797</v>
+      </c>
+      <c r="E93">
+        <v>0.01033874893078552</v>
+      </c>
+      <c r="F93">
+        <v>0.01908409082045938</v>
+      </c>
+      <c r="G93">
+        <v>0.006263201857515596</v>
+      </c>
+      <c r="H93">
+        <v>-0.002880567363313144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.399925139687742</v>
+        <v>0.3373384464729178</v>
       </c>
       <c r="C94">
-        <v>0.2131892253264563</v>
+        <v>-0.2670341972962678</v>
       </c>
       <c r="D94">
-        <v>0.4507790026662493</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4249216645768568</v>
+      </c>
+      <c r="E94">
+        <v>0.1012247881587527</v>
+      </c>
+      <c r="F94">
+        <v>-0.0211904689027074</v>
+      </c>
+      <c r="G94">
+        <v>-0.4760398462748854</v>
+      </c>
+      <c r="H94">
+        <v>-0.1924555892247916</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07753677386060137</v>
+        <v>0.06857020534401748</v>
       </c>
       <c r="C95">
-        <v>0.06024839709296278</v>
+        <v>-0.06549300735438161</v>
       </c>
       <c r="D95">
-        <v>-0.1121512287084871</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08525788985471464</v>
+      </c>
+      <c r="E95">
+        <v>-0.01416881389655776</v>
+      </c>
+      <c r="F95">
+        <v>-0.9064121773730626</v>
+      </c>
+      <c r="G95">
+        <v>0.1518254931786591</v>
+      </c>
+      <c r="H95">
+        <v>0.00550207050852194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1696725015674513</v>
+        <v>0.1605308585818301</v>
       </c>
       <c r="C98">
-        <v>0.0155330331478506</v>
+        <v>-0.06736040118925746</v>
       </c>
       <c r="D98">
-        <v>-0.1701931119984418</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.121326975375842</v>
+      </c>
+      <c r="E98">
+        <v>-0.3162705254653</v>
+      </c>
+      <c r="F98">
+        <v>0.05248867282047812</v>
+      </c>
+      <c r="G98">
+        <v>0.04760751914508447</v>
+      </c>
+      <c r="H98">
+        <v>-0.05372977630868886</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005764461886382861</v>
+        <v>0.006404165449453063</v>
       </c>
       <c r="C101">
-        <v>0.01611602194116352</v>
+        <v>-0.02218429780982197</v>
       </c>
       <c r="D101">
-        <v>-0.06580565963691715</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.08350823516905176</v>
+      </c>
+      <c r="E101">
+        <v>0.02866789437169803</v>
+      </c>
+      <c r="F101">
+        <v>0.01099923520388152</v>
+      </c>
+      <c r="G101">
+        <v>0.005793970358029666</v>
+      </c>
+      <c r="H101">
+        <v>0.1087303161617452</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1305399795892024</v>
+        <v>0.1066608276371266</v>
       </c>
       <c r="C102">
-        <v>0.1100942042197994</v>
+        <v>-0.1186555143187853</v>
       </c>
       <c r="D102">
-        <v>0.03693082149951404</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05682320410494707</v>
+      </c>
+      <c r="E102">
+        <v>0.03308038044724084</v>
+      </c>
+      <c r="F102">
+        <v>-0.02449342518906319</v>
+      </c>
+      <c r="G102">
+        <v>0.03292359872003005</v>
+      </c>
+      <c r="H102">
+        <v>0.03631060201340421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
